--- a/Group_3_Final_Project_Data_Dictionary.xlsx
+++ b/Group_3_Final_Project_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheri\Desktop\Information Architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheri\Documents\GitHub\GROUP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DF847C-C5A7-40B8-AFDD-F4A9D9F093F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55358E-BF8D-4E17-BCBD-135CCF16027D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="420" windowWidth="17190" windowHeight="11895" xr2:uid="{AA1B2C86-2CC4-4C7D-B745-AE2FFE6CF24F}"/>
+    <workbookView xWindow="45" yWindow="90" windowWidth="12030" windowHeight="11895" xr2:uid="{AA1B2C86-2CC4-4C7D-B745-AE2FFE6CF24F}"/>
   </bookViews>
   <sheets>
     <sheet name="dict" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -62,36 +62,15 @@
     <t>int</t>
   </si>
   <si>
-    <t>industry_id</t>
-  </si>
-  <si>
-    <t>Key to Industry Dimension</t>
-  </si>
-  <si>
     <t>date_key</t>
   </si>
   <si>
     <t>Key to Date dimension</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Varchar</t>
-  </si>
-  <si>
     <t>case_number</t>
   </si>
   <si>
-    <t>stock_price</t>
-  </si>
-  <si>
     <t>Float</t>
   </si>
   <si>
@@ -104,21 +83,9 @@
     <t>Unique Key to Location Dimension</t>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
     <t>2020/05/1</t>
   </si>
   <si>
-    <t>Number of cases on that date for that location</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Price at close for that day and industry</t>
-  </si>
-  <si>
     <t>N.NNN</t>
   </si>
   <si>
@@ -152,54 +119,21 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>Name of Industry</t>
-  </si>
-  <si>
     <t>day_performance</t>
   </si>
   <si>
-    <t>day performance for that industry</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
-    <t>ytd_performance</t>
-  </si>
-  <si>
-    <t>ytd performance for that industry as of that day</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>latitude coordinates</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>longitude coordinates</t>
-  </si>
-  <si>
     <t>State Name</t>
   </si>
   <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>YYYY</t>
   </si>
   <si>
@@ -209,7 +143,94 @@
     <t>W</t>
   </si>
   <si>
-    <t>Data dictionary outlining database for Group 3 Final Project relating to COVID 19 and stock prices</t>
+    <t>Week_Ending</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>Date of the last day of the week</t>
+  </si>
+  <si>
+    <t>Data dictionary outlining database for Group 3 Final Project relating to COVID 19, stock prices, and unemployment data</t>
+  </si>
+  <si>
+    <t>date_string</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Key to the SP Dimension</t>
+  </si>
+  <si>
+    <t>Price at close for the SP&amp;500</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>Aggregate cases as of that day for that state</t>
+  </si>
+  <si>
+    <t>Aggregate deaths as of that day for that state</t>
+  </si>
+  <si>
+    <t>unemp_id</t>
+  </si>
+  <si>
+    <t>Key to the Unemployment Dimension</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Initial_Claims</t>
+  </si>
+  <si>
+    <t>Number of initial unemployment claims made that week in that state</t>
+  </si>
+  <si>
+    <t>12,000</t>
+  </si>
+  <si>
+    <t>Unemp_Rate</t>
+  </si>
+  <si>
+    <t>Unemployment Rate as of that date for that state</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>Total_Claims</t>
+  </si>
+  <si>
+    <t>Total Unemployment Claims per State per Week</t>
+  </si>
+  <si>
+    <t>22,000,000</t>
+  </si>
+  <si>
+    <t>sp_key</t>
+  </si>
+  <si>
+    <t>covid19_key</t>
+  </si>
+  <si>
+    <t>Key to the Covid 19 Dimension</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
@@ -347,10 +368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,6 +383,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F3331-33F5-4A5C-9D30-D87DEEAB6CE1}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,362 +728,405 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3884.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="E23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="9">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="9">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="14">
-        <v>-78.5</v>
+      <c r="F23" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>